--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="898">
   <si>
     <t>anchor score</t>
   </si>
@@ -295,487 +295,487 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>social</t>
@@ -3073,10 +3073,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3134,7 +3134,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03302073994209349</v>
+        <v>0.03355915772437586</v>
       </c>
       <c r="C3">
         <v>236</v>
@@ -3155,28 +3155,28 @@
         <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="K3">
-        <v>0.005060369053691293</v>
+        <v>0.008865339570274754</v>
       </c>
       <c r="L3">
-        <v>565</v>
+        <v>227</v>
       </c>
       <c r="M3">
-        <v>586</v>
+        <v>227</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2521</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3184,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01924637679458733</v>
+        <v>0.019560197488154</v>
       </c>
       <c r="C4">
         <v>236</v>
@@ -3205,28 +3205,28 @@
         <v>278</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="K4">
-        <v>0.004506404778487638</v>
+        <v>0.007783975688499938</v>
       </c>
       <c r="L4">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="M4">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>293</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3234,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01409499827921672</v>
+        <v>0.0143248234656928</v>
       </c>
       <c r="C5">
         <v>43</v>
@@ -3255,28 +3255,28 @@
         <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.004427939849866339</v>
+        <v>0.005060369053691293</v>
       </c>
       <c r="L5">
-        <v>299</v>
+        <v>565</v>
       </c>
       <c r="M5">
-        <v>306</v>
+        <v>586</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>77</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3284,7 +3284,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01196772624285133</v>
+        <v>0.01216286531707978</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3305,28 +3305,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="K6">
-        <v>0.004403281595143626</v>
+        <v>0.004506404778487638</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>174</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3334,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01074733543210536</v>
+        <v>0.01092257549392549</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3355,28 +3355,28 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>0.004033958030379047</v>
+        <v>0.004427939849866339</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>306</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3384,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01030848201138132</v>
+        <v>0.01047656637390617</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -3405,28 +3405,28 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="K8">
-        <v>0.003981246142387949</v>
+        <v>0.004403281595143626</v>
       </c>
       <c r="L8">
-        <v>409</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>427</v>
+        <v>56</v>
       </c>
       <c r="N8">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1716</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3434,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01030848201138132</v>
+        <v>0.01047656637390617</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -3455,28 +3455,28 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="K9">
-        <v>0.003702488644397628</v>
+        <v>0.004033958030379047</v>
       </c>
       <c r="L9">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3484,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009369309812176263</v>
+        <v>0.009522080556243019</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -3505,28 +3505,28 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="K10">
-        <v>0.003674639592237713</v>
+        <v>0.003981246142387949</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>409</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>427</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>52</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3534,7 +3534,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009119416516473786</v>
+        <v>0.009268112639732064</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -3555,16 +3555,16 @@
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K11">
-        <v>0.003632941654874947</v>
+        <v>0.003702488644397628</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N11">
         <v>0.99</v>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3584,7 +3584,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009119416516473786</v>
+        <v>0.009268112639732064</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3605,16 +3605,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K12">
-        <v>0.003530479522824619</v>
+        <v>0.003674639592237713</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3634,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008862479836102726</v>
+        <v>0.009006986493047561</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -3655,28 +3655,28 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="K13">
-        <v>0.003276146345147342</v>
+        <v>0.003632941654874947</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3684,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00859786834568429</v>
+        <v>0.008738060395140395</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -3705,28 +3705,28 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="K14">
-        <v>0.003270964795502488</v>
+        <v>0.003530479522824619</v>
       </c>
       <c r="L14">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>620</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3734,7 +3734,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008324850228929792</v>
+        <v>0.008460590597133338</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -3755,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K15">
-        <v>0.003222872122435198</v>
+        <v>0.003276146345147342</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3784,7 +3784,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008042569401534867</v>
+        <v>0.008173707055888471</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -3805,28 +3805,28 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c r="K16">
-        <v>0.003113590275399976</v>
+        <v>0.003270964795502488</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>54</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3834,7 +3834,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008042569401534867</v>
+        <v>0.008173707055888471</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -3855,16 +3855,16 @@
         <v>63</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K17">
-        <v>0.003113590275399976</v>
+        <v>0.003222872122435198</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3884,7 +3884,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007750013795013362</v>
+        <v>0.007876381200694955</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -3905,16 +3905,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K18">
-        <v>0.002882624459421651</v>
+        <v>0.003113590275399976</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3934,7 +3934,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007750013795013362</v>
+        <v>0.007876381200694955</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -3955,28 +3955,28 @@
         <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="K19">
-        <v>0.002829691080108365</v>
+        <v>0.003113590275399976</v>
       </c>
       <c r="L19">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>422</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3984,7 +3984,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007750013795013362</v>
+        <v>0.007876381200694955</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K20">
-        <v>0.002821930831328726</v>
+        <v>0.002882624459421651</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4034,7 +4034,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00744597240575668</v>
+        <v>0.007567382281994272</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -4055,28 +4055,28 @@
         <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>0.002759902798931749</v>
+        <v>0.002829691080108365</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>97</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4084,7 +4084,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00744597240575668</v>
+        <v>0.007567382281994272</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -4105,28 +4105,28 @@
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="K22">
-        <v>0.00273141663985213</v>
+        <v>0.002821930831328726</v>
       </c>
       <c r="L22">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4134,7 +4134,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00744597240575668</v>
+        <v>0.007567382281994272</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -4155,16 +4155,16 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K23">
-        <v>0.002696448275472565</v>
+        <v>0.002759902798931749</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4184,7 +4184,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007128975824877122</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="K24">
-        <v>0.002696448275472565</v>
+        <v>0.00273141663985213</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4234,7 +4234,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007128975824877122</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4255,28 +4255,28 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
       <c r="K25">
-        <v>0.002670354724060682</v>
+        <v>0.002696448275472565</v>
       </c>
       <c r="L25">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>644</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4284,7 +4284,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007128975824877122</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4305,16 +4305,16 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K26">
-        <v>0.002631464068735623</v>
+        <v>0.002696448275472565</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4334,7 +4334,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007128975824877122</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4355,28 +4355,28 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.002631464068735623</v>
+        <v>0.002670354724060682</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>104</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4384,7 +4384,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006797211748656573</v>
+        <v>0.006908043295188639</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4405,28 +4405,28 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="K28">
-        <v>0.002575212212486054</v>
+        <v>0.002631464068735623</v>
       </c>
       <c r="L28">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006797211748656573</v>
+        <v>0.006908043295188639</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4455,16 +4455,16 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K29">
-        <v>0.002564833910372036</v>
+        <v>0.002631464068735623</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>248</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4484,7 +4484,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006448401259263217</v>
+        <v>0.006553545296355296</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4505,28 +4505,28 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="K30">
-        <v>0.002564833910372036</v>
+        <v>0.002575212212486054</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4534,7 +4534,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006448401259263217</v>
+        <v>0.006553545296355296</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4555,28 +4555,28 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="K31">
-        <v>0.002496908671836939</v>
+        <v>0.002564833910372036</v>
       </c>
       <c r="L31">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4584,7 +4584,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006448401259263217</v>
+        <v>0.006553545296355296</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4605,28 +4605,28 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="K32">
-        <v>0.002478497833222502</v>
+        <v>0.002564833910372036</v>
       </c>
       <c r="L32">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>3012</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4634,7 +4634,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -4655,28 +4655,28 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="K33">
-        <v>0.00242608999694769</v>
+        <v>0.002496908671836939</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4684,7 +4684,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -4705,28 +4705,28 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="K34">
-        <v>0.00242608999694769</v>
+        <v>0.002478497833222502</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4734,7 +4734,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -4755,28 +4755,28 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="K35">
-        <v>0.002380980771512289</v>
+        <v>0.00242608999694769</v>
       </c>
       <c r="L35">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>215</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4784,7 +4784,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -4805,16 +4805,16 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K36">
-        <v>0.002353653015216413</v>
+        <v>0.00242608999694769</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4834,7 +4834,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -4855,28 +4855,28 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="K37">
-        <v>0.002353653015216413</v>
+        <v>0.002380980771512289</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4884,7 +4884,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4905,7 +4905,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K38">
         <v>0.002353653015216413</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4934,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4955,28 +4955,28 @@
         <v>6</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="K39">
-        <v>0.002343155876127161</v>
+        <v>0.002353653015216413</v>
       </c>
       <c r="L39">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4984,7 +4984,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -5005,28 +5005,28 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="K40">
-        <v>0.002295372522090966</v>
+        <v>0.002353653015216413</v>
       </c>
       <c r="L40">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5034,7 +5034,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5055,28 +5055,28 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="K41">
-        <v>0.00227891473267101</v>
+        <v>0.002343155876127161</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5084,7 +5084,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5105,28 +5105,28 @@
         <v>15</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="K42">
-        <v>0.002267427620801488</v>
+        <v>0.00227891473267101</v>
       </c>
       <c r="L42">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5134,7 +5134,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5155,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K43">
         <v>0.002267427620801488</v>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5184,7 +5184,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5205,28 +5205,28 @@
         <v>26</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c r="K44">
-        <v>0.002201640797571813</v>
+        <v>0.002267427620801488</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>111</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5234,7 +5234,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5255,28 +5255,28 @@
         <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="K45">
-        <v>0.002193013720791436</v>
+        <v>0.002201640797571813</v>
       </c>
       <c r="L45">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>280</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5284,7 +5284,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5305,28 +5305,28 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="K46">
-        <v>0.0021215541577533</v>
+        <v>0.002193013720791436</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5334,7 +5334,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5355,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K47">
         <v>0.0021215541577533</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5384,7 +5384,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5405,7 +5405,7 @@
         <v>7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K48">
         <v>0.0021215541577533</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5455,28 +5455,28 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="K49">
-        <v>0.002049400501758303</v>
+        <v>0.0021215541577533</v>
       </c>
       <c r="L49">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5484,7 +5484,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004806354520635933</v>
+        <v>0.004884724258758149</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5534,7 +5534,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004806354520635933</v>
+        <v>0.004884724258758149</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5584,7 +5584,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004806354520635933</v>
+        <v>0.004884724258758149</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5634,7 +5634,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -5684,7 +5684,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -5705,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K54">
         <v>0.002006602558758394</v>
@@ -5734,7 +5734,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -5784,7 +5784,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5834,7 +5834,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5884,7 +5884,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -5934,7 +5934,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -5984,7 +5984,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6005,7 +6005,7 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K60">
         <v>0.001943740244765154</v>
@@ -6034,7 +6034,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6055,7 +6055,7 @@
         <v>36</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K61">
         <v>0.001885883005861916</v>
@@ -6084,7 +6084,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6134,7 +6134,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6184,7 +6184,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6234,7 +6234,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6284,7 +6284,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6334,7 +6334,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6384,7 +6384,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6434,7 +6434,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6484,7 +6484,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6534,7 +6534,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003563821696880928</v>
+        <v>0.003621931387270949</v>
       </c>
       <c r="C71">
         <v>21</v>
@@ -6584,7 +6584,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003050998403010339</v>
+        <v>0.003100746282578654</v>
       </c>
       <c r="C72">
         <v>18</v>
@@ -6634,7 +6634,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6684,7 +6684,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6734,7 +6734,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6784,7 +6784,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6805,7 +6805,7 @@
         <v>14</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K76">
         <v>0.001694414239264686</v>
@@ -6834,7 +6834,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6884,7 +6884,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6934,7 +6934,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6984,7 +6984,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7034,7 +7034,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7084,7 +7084,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7134,7 +7134,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7184,7 +7184,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7234,7 +7234,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002474933256357257</v>
+        <v>0.002515288138698524</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -7255,7 +7255,7 @@
         <v>77</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K85">
         <v>0.00161032067930536</v>
@@ -7284,7 +7284,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002443670753967649</v>
+        <v>0.002483515887368259</v>
       </c>
       <c r="C86">
         <v>11</v>
@@ -7334,7 +7334,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002341413887114628</v>
+        <v>0.002379591677034423</v>
       </c>
       <c r="C87">
         <v>14</v>
@@ -7384,25 +7384,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002226120115625509</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>243</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>314</v>
@@ -7434,7 +7434,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>315</v>
@@ -7484,7 +7484,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>316</v>
@@ -7534,7 +7534,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>317</v>
@@ -7584,7 +7584,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>318</v>
@@ -7634,7 +7634,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>319</v>
@@ -7684,7 +7684,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>320</v>
@@ -7734,7 +7734,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>321</v>
@@ -7784,7 +7784,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>323</v>
@@ -7884,7 +7884,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>324</v>
@@ -7934,7 +7934,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>325</v>
@@ -7984,7 +7984,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>326</v>
@@ -8034,7 +8034,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>327</v>
@@ -8084,7 +8084,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>328</v>
@@ -8134,7 +8134,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K103">
         <v>0.001526934647493306</v>
@@ -8184,7 +8184,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8202,10 +8202,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K104">
         <v>0.001512063907850959</v>
@@ -8234,7 +8234,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8252,10 +8252,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K105">
         <v>0.001478834866573001</v>
@@ -8284,7 +8284,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>329</v>
@@ -8334,7 +8334,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>330</v>
@@ -8384,7 +8384,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>331</v>
@@ -8434,7 +8434,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>332</v>
@@ -8484,7 +8484,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8502,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>333</v>
@@ -8534,7 +8534,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>334</v>
@@ -8584,7 +8584,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>335</v>
@@ -8634,7 +8634,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>336</v>
@@ -8684,7 +8684,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>337</v>
@@ -8734,7 +8734,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>338</v>
@@ -8784,7 +8784,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>339</v>
@@ -8834,7 +8834,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8852,10 +8852,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K117">
         <v>0.001405890831990163</v>
@@ -8884,7 +8884,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>340</v>
@@ -8934,7 +8934,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8952,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>341</v>
@@ -8984,7 +8984,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9034,25 +9034,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002149467086421073</v>
+        <v>0.002141567723305161</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>343</v>
@@ -9084,25 +9084,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002107208751794027</v>
+        <v>0.002115798089430086</v>
       </c>
       <c r="C122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E122">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F122">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>344</v>
@@ -9134,13 +9134,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002081852561821067</v>
+        <v>0.002057529875975924</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D123">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E123">
         <v>0.95</v>
@@ -9152,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>215</v>
+        <v>3012</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>345</v>
@@ -9184,25 +9184,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002024519194304434</v>
+        <v>0.001769424634719298</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="E124">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F124">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>3012</v>
+        <v>422</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>346</v>
@@ -9234,25 +9234,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001960409461065128</v>
+        <v>0.001749113139318683</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>347</v>
@@ -9284,25 +9284,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001741036267658185</v>
+        <v>0.001711989580847321</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="E126">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F126">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>422</v>
+        <v>293</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>348</v>
@@ -9334,25 +9334,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001721050646655202</v>
+        <v>0.001696734000706505</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E127">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F127">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>349</v>
@@ -9384,25 +9384,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.00168452269264408</v>
+        <v>0.001637933202479858</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D128">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="E128">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F128">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>293</v>
+        <v>524</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>350</v>
@@ -9434,13 +9434,13 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001669511870601615</v>
+        <v>0.001544984090306024</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E129">
         <v>0.97</v>
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>351</v>
@@ -9484,25 +9484,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001611654463017773</v>
+        <v>0.001480405865802156</v>
       </c>
       <c r="C130">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E130">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F130">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>524</v>
+        <v>208</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>352</v>
@@ -9534,13 +9534,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001520196611597645</v>
+        <v>0.001480405865802156</v>
       </c>
       <c r="C131">
         <v>3</v>
       </c>
       <c r="D131">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E131">
         <v>0.97</v>
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>353</v>
@@ -9584,25 +9584,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001456654469843727</v>
+        <v>0.001474875762167688</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D132">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E132">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F132">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>354</v>
@@ -9634,25 +9634,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001456654469843727</v>
+        <v>0.00143373761303138</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E133">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F133">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>355</v>
@@ -9684,25 +9684,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.00145121309031131</v>
+        <v>0.001353841020075242</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E134">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F134">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>356</v>
@@ -9734,25 +9734,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001410734955088554</v>
+        <v>0.001300440523773184</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D135">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E135">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F135">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>357</v>
@@ -9784,25 +9784,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001332120210346387</v>
+        <v>0.001270788887980787</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E136">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F136">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>358</v>
@@ -9834,25 +9834,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001279576463103046</v>
+        <v>0.001263218861868987</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E137">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F137">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>359</v>
@@ -9884,25 +9884,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001250400553433322</v>
+        <v>0.00124330375214353</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D138">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E138">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F138">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>360</v>
@@ -9934,25 +9934,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001242951979614945</v>
+        <v>0.001227336625503139</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D139">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="E139">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F139">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>361</v>
@@ -9984,25 +9984,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.00122335638473847</v>
+        <v>0.001218794207048001</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E140">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F140">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>362</v>
@@ -10034,25 +10034,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001207645432135156</v>
+        <v>0.001148188661261885</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E141">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F141">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>363</v>
@@ -10084,28 +10084,28 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001199240066881345</v>
+        <v>0.001134255235486719</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D142">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K142">
         <v>0.001284103859401482</v>
@@ -10134,28 +10134,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001129767305227989</v>
+        <v>0.001123664092758125</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D143">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E143">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F143">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>80</v>
+        <v>810</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K143">
         <v>0.001244068183160626</v>
@@ -10184,28 +10184,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001116057425117082</v>
+        <v>0.001080865204024183</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E144">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F144">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K144">
         <v>0.001233380734343174</v>
@@ -10234,28 +10234,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001105636204995801</v>
+        <v>0.001026407892287542</v>
       </c>
       <c r="C145">
         <v>3</v>
       </c>
       <c r="D145">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F145">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>810</v>
+        <v>21</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K145">
         <v>0.001197905149681443</v>
@@ -10284,28 +10284,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001063523974817046</v>
+        <v>0.001023283640948751</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E146">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F146">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K146">
         <v>0.001197905149681443</v>
@@ -10334,28 +10334,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001009940367517659</v>
+        <v>0.001010475395082948</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F147">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K147">
         <v>0.001184169479634523</v>
@@ -10384,25 +10384,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001006866241169815</v>
+        <v>0.000999615215071902</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E148">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F148">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>364</v>
@@ -10434,25 +10434,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0009942634887609881</v>
+        <v>0.0009822411073935682</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E149">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F149">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>365</v>
@@ -10484,25 +10484,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0009835775477485711</v>
+        <v>0.0009822411073935682</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E150">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>366</v>
@@ -10534,25 +10534,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0009664821874870269</v>
+        <v>0.0009716772411696105</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E151">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F151">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>367</v>
@@ -10584,13 +10584,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0009664821874870269</v>
+        <v>0.000944370735744905</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E152">
         <v>0.95</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>88</v>
+        <v>1121</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>368</v>
@@ -10634,25 +10634,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0009560878062504859</v>
+        <v>0.0009106488702032804</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E153">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>369</v>
@@ -10684,25 +10684,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0009292194020502928</v>
+        <v>0.0008822469811068296</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E154">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>1121</v>
+        <v>22</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>370</v>
@@ -10734,25 +10734,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0008960385647492594</v>
+        <v>0.000827232956590524</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E155">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F155">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>371</v>
@@ -10784,13 +10784,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0008680923510385123</v>
+        <v>0.0008043852661901029</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E156">
         <v>0.97</v>
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>372</v>
@@ -10834,25 +10834,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0008139609627706421</v>
+        <v>0.0008043852661901029</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E157">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>373</v>
@@ -10884,25 +10884,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0007914798370765435</v>
+        <v>0.0007933711451802725</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E158">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>374</v>
@@ -10934,25 +10934,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0007914798370765435</v>
+        <v>0.0007783397691682445</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>375</v>
@@ -10984,25 +10984,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.000780642424870212</v>
+        <v>0.0007545265287092185</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E160">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F160">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>376</v>
@@ -11034,25 +11034,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0007658522098611959</v>
+        <v>0.000718522865835631</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E161">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F161">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>40</v>
+        <v>942</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>377</v>
@@ -11084,25 +11084,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0007424210252398703</v>
+        <v>0.000718522865835631</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E162">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F162">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>378</v>
@@ -11134,13 +11134,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0007069949993998954</v>
+        <v>0.0006980954207098047</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E163">
         <v>0.92</v>
@@ -11152,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>942</v>
+        <v>48</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>379</v>
@@ -11184,25 +11184,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0007069949993998954</v>
+        <v>0.0006929303721199454</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E164">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F164">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>380</v>
@@ -11234,25 +11234,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0006868952889506265</v>
+        <v>0.0006858432919919748</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E165">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F165">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>381</v>
@@ -11284,25 +11284,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0006818131075778164</v>
+        <v>0.0006858432919919748</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E166">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>382</v>
@@ -11334,7 +11334,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0006748397314348116</v>
+        <v>0.0006858432919919748</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11352,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>383</v>
@@ -11384,13 +11384,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0006748397314348116</v>
+        <v>0.0006677709511993514</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E168">
         <v>0.95</v>
@@ -11402,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>384</v>
@@ -11434,25 +11434,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0006748397314348116</v>
+        <v>0.0006660323101173564</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D169">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E169">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F169">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>385</v>
@@ -11484,25 +11484,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006570573403998709</v>
+        <v>0.0006548414168330089</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E170">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F170">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>386</v>
@@ -11534,25 +11534,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006553465937985192</v>
+        <v>0.0006079859471862726</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E171">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>387</v>
@@ -11584,25 +11584,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006443352454238923</v>
+        <v>0.0006074522752664944</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E172">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F172">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>388</v>
@@ -11634,25 +11634,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0005982315174705022</v>
+        <v>0.000598030369358628</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>389</v>
@@ -11684,13 +11684,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0005977064076980183</v>
+        <v>0.0005849420332261567</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E174">
         <v>0.9399999999999999</v>
@@ -11702,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>390</v>
@@ -11734,25 +11734,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0005884356653481128</v>
+        <v>0.0005830318666980842</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E175">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F175">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>391</v>
@@ -11784,25 +11784,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0005755573163962522</v>
+        <v>0.0005609981167547076</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E176">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F176">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>392</v>
@@ -11834,25 +11834,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0005736777962757649</v>
+        <v>0.0005609981167547076</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>393</v>
@@ -11884,7 +11884,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0005519975523076368</v>
+        <v>0.0005609981167547076</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -11902,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>394</v>
@@ -11934,25 +11934,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0005519975523076368</v>
+        <v>0.0005569507965548945</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>395</v>
@@ -11984,25 +11984,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0005519975523076368</v>
+        <v>0.0005569507965548945</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E180">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F180">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>396</v>
@@ -12034,25 +12034,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0005480151666685795</v>
+        <v>0.0005080723908699671</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>397</v>
@@ -12084,25 +12084,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0005480151666685795</v>
+        <v>0.0005080723908699671</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E182">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F182">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>398</v>
@@ -12134,7 +12134,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004999209583406455</v>
+        <v>0.0005080723908699671</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12152,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>99</v>
+        <v>532</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>399</v>
@@ -12184,7 +12184,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0004999209583406455</v>
+        <v>0.0005080723908699671</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12202,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>400</v>
@@ -12234,13 +12234,13 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0004999209583406455</v>
+        <v>0.0004786313226285103</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E185">
         <v>0.92</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>532</v>
+        <v>51</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>401</v>
@@ -12284,25 +12284,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0004999209583406455</v>
+        <v>0.0004059761326881436</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>402</v>
@@ -12334,25 +12334,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0004709522379096069</v>
+        <v>0.0003745184941461002</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>403</v>
@@ -12384,25 +12384,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0003994627162664093</v>
+        <v>0.0003745184941461002</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E188">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F188">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>404</v>
@@ -12434,25 +12434,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0003685097790675508</v>
+        <v>0.0003707700539438977</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>405</v>
@@ -12484,25 +12484,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0003685097790675508</v>
+        <v>0.0003335424234362024</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>406</v>
@@ -12534,25 +12534,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0003648214782430187</v>
+        <v>0.0003330161550586782</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F191">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>407</v>
@@ -12584,28 +12584,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003281911219107423</v>
+        <v>0.0002941352273518325</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="D192">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K192">
         <v>0.001153308838876322</v>
@@ -12634,28 +12634,28 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003276732968992596</v>
+        <v>0.0002870684764236759</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F193">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K193">
         <v>0.001146490653178547</v>
@@ -12684,28 +12684,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0002894161686048108</v>
+        <v>0.0002870684764236759</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F194">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K194">
         <v>0.001146490653178547</v>
@@ -12734,28 +12734,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0002824627955031757</v>
+        <v>0.0002358501094251335</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K195">
         <v>0.001108783403854056</v>
@@ -12784,28 +12784,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0002824627955031757</v>
+        <v>0.0002358501094251335</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F196">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K196">
         <v>0.001082594127554972</v>
@@ -12834,7 +12834,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0002320661678283068</v>
+        <v>0.0002358501094251335</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -12852,10 +12852,10 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K197">
         <v>0.001069013749149711</v>
@@ -12884,7 +12884,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0002320661678283068</v>
+        <v>0.0002358501094251335</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12902,10 +12902,10 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K198">
         <v>0.001031159778303114</v>
@@ -12934,7 +12934,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0002320661678283068</v>
+        <v>0.0002358501094251335</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -12952,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>408</v>
@@ -12984,25 +12984,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002320661678283068</v>
+        <v>0.000208319091673077</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F200">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>409</v>
@@ -13034,25 +13034,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002320661678283068</v>
+        <v>0.0001784839841416111</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E201">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F201">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>31</v>
+        <v>355</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>410</v>
@@ -13084,25 +13084,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002049768533407893</v>
+        <v>0.0001784839841416111</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>411</v>
@@ -13134,7 +13134,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0001756204155233604</v>
+        <v>0.0001784839841416111</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13152,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>412</v>
@@ -13184,7 +13184,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0001756204155233604</v>
+        <v>0.0001784839841416111</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13202,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>413</v>
@@ -13234,25 +13234,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0001756204155233604</v>
+        <v>0.0001619715978105871</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>414</v>
@@ -13284,25 +13284,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0001756204155233604</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>415</v>
@@ -13334,13 +13334,13 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0001593729512890576</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E207">
         <v>0.75</v>
@@ -13352,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>416</v>
@@ -13384,7 +13384,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13402,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>417</v>
@@ -13434,7 +13434,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>418</v>
@@ -13484,7 +13484,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>419</v>
@@ -13534,7 +13534,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13552,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>420</v>
@@ -13584,7 +13584,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13602,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>421</v>
@@ -13634,7 +13634,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>422</v>
@@ -13684,7 +13684,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>423</v>
@@ -13734,7 +13734,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>424</v>
@@ -13784,7 +13784,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001126936945942065</v>
+        <v>0.0001145312151714868</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13802,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>425</v>
@@ -13834,25 +13834,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001126936945942065</v>
+        <v>0.0001139413254396999</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F217">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>426</v>
@@ -13884,25 +13884,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001126936945942065</v>
+        <v>6.592691398836796E-05</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F218">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>427</v>
@@ -13934,25 +13934,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001121132689593373</v>
+        <v>6.592691398836693E-05</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>428</v>
@@ -13984,25 +13984,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>6.486919307910464E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
         <v>3</v>
       </c>
       <c r="E220">
+        <v>0.67</v>
+      </c>
+      <c r="F220">
         <v>0.33</v>
       </c>
-      <c r="F220">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>429</v>
@@ -14034,13 +14034,13 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>6.486919307910364E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E221">
         <v>0.67</v>
@@ -14052,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>430</v>
@@ -14084,7 +14084,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14102,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>431</v>
@@ -14134,7 +14134,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14152,7 +14152,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>432</v>
@@ -14184,7 +14184,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>433</v>
@@ -14234,7 +14234,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14252,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>434</v>
@@ -14284,7 +14284,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>435</v>
@@ -14334,7 +14334,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>436</v>
@@ -14384,7 +14384,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>437</v>
@@ -14434,7 +14434,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14452,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>438</v>
@@ -14484,7 +14484,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>4.586944631633363E-05</v>
+        <v>4.661736794387652E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14502,7 +14502,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>439</v>
@@ -14534,25 +14534,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>4.586944631633363E-05</v>
+        <v>0</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>440</v>
@@ -14584,25 +14584,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>4.586944631633363E-05</v>
+        <v>0</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>441</v>
@@ -14652,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>442</v>
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>443</v>
@@ -14752,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>444</v>
@@ -14802,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>445</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>446</v>
@@ -14902,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>447</v>
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>448</v>
@@ -15002,7 +15002,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>449</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>450</v>
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>451</v>
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>452</v>
@@ -15187,10 +15187,10 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E244">
         <v>0.5</v>
@@ -15202,7 +15202,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>453</v>
@@ -15252,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>454</v>
@@ -15280,30 +15280,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-      <c r="C246">
-        <v>2</v>
-      </c>
-      <c r="D246">
-        <v>4</v>
-      </c>
-      <c r="E246">
-        <v>0.5</v>
-      </c>
-      <c r="F246">
-        <v>0.5</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>97</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>455</v>
       </c>
@@ -15330,30 +15306,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>2</v>
-      </c>
-      <c r="E247">
-        <v>0.5</v>
-      </c>
-      <c r="F247">
-        <v>0.5</v>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247">
-        <v>27</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>456</v>
       </c>
@@ -15641,7 +15593,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K258">
         <v>0.0009792947906017159</v>
@@ -15667,7 +15619,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K259">
         <v>0.0009129548756001246</v>
@@ -15693,7 +15645,7 @@
     </row>
     <row r="260" spans="10:17">
       <c r="J260" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K260">
         <v>0.0008629802436126808</v>
@@ -18891,7 +18843,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K383">
         <v>0.0008261659444075008</v>
@@ -18917,7 +18869,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K384">
         <v>0.0008261659444075008</v>
@@ -18943,7 +18895,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K385">
         <v>0.0008261659444075008</v>
@@ -18969,7 +18921,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K386">
         <v>0.0007995908482466345</v>
@@ -18995,7 +18947,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K387">
         <v>0.0007840282637323059</v>
@@ -19021,7 +18973,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K388">
         <v>0.0006704379850215366</v>
@@ -19047,7 +18999,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K389">
         <v>0.0006704379850215366</v>
@@ -19073,7 +19025,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K390">
         <v>0.0006544847779153319</v>
@@ -19099,7 +19051,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K391">
         <v>0.0006376628341131216</v>
@@ -19125,7 +19077,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K392">
         <v>0.0006318882522055054</v>
@@ -19151,7 +19103,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K393">
         <v>0.0006102191822885453</v>
@@ -27237,7 +27189,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K704">
         <v>0.0005715552058218483</v>
@@ -27263,7 +27215,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K705">
         <v>0.0005653961109698989</v>
@@ -27289,7 +27241,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K706">
         <v>0.0005653961109698989</v>
@@ -27315,7 +27267,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K707">
         <v>0.0005653961109698989</v>
@@ -27341,7 +27293,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K708">
         <v>0.0005494688032038363</v>
@@ -27367,7 +27319,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K709">
         <v>0.0005047574522415692</v>
@@ -27419,7 +27371,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K711">
         <v>0.0004746480637824116</v>
@@ -27445,7 +27397,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K712">
         <v>0.0004740712455737736</v>
@@ -27471,7 +27423,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K713">
         <v>0.0004740712455737736</v>
@@ -27497,7 +27449,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K714">
         <v>0.0004740712455737736</v>
@@ -27523,7 +27475,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K715">
         <v>0.0004740712455737736</v>
@@ -27549,7 +27501,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K716">
         <v>0.000471130199025988</v>
@@ -27575,7 +27527,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K717">
         <v>0.0004373747305965873</v>
@@ -27601,7 +27553,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K718">
         <v>0.0004373747305965873</v>
@@ -27627,7 +27579,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K719">
         <v>0.0004275873562377267</v>
@@ -27653,7 +27605,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K720">
         <v>0.0004027083581428212</v>
@@ -27679,7 +27631,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K721">
         <v>0.0002853288314243328</v>
@@ -27705,7 +27657,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K722">
         <v>0.0002853288314243328</v>
@@ -27731,7 +27683,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K723">
         <v>0.0002678573223593403</v>
@@ -27757,7 +27709,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K724">
         <v>0.0002373240318912058</v>
@@ -27783,7 +27735,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K725">
         <v>0.0002342142908989124</v>
@@ -27809,7 +27761,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K726">
         <v>0.0002008923864063693</v>
@@ -27835,7 +27787,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K727">
         <v>0.0001894037290307605</v>
@@ -27861,7 +27813,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K728">
         <v>0.0001894037290307605</v>
@@ -27887,7 +27839,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K729">
         <v>0.0001680663211820379</v>
@@ -27913,7 +27865,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K730">
         <v>0.000142052368716692</v>
@@ -27939,7 +27891,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K731">
         <v>0.000142052368716692</v>
@@ -27965,7 +27917,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K732">
         <v>0.000142052368716692</v>
@@ -27991,7 +27943,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K733">
         <v>0.000142052368716692</v>
@@ -28017,7 +27969,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K734">
         <v>0.000142052368716692</v>
@@ -28043,7 +27995,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K735">
         <v>0.0001049761137827841</v>
@@ -28069,7 +28021,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K736">
         <v>9.615162826669653E-05</v>
@@ -28095,7 +28047,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K737">
         <v>9.615162826669653E-05</v>
@@ -28121,7 +28073,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K738">
         <v>9.615162826669653E-05</v>
@@ -28147,7 +28099,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K739">
         <v>9.615162826669653E-05</v>
@@ -28173,7 +28125,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K740">
         <v>7.556607926496391E-05</v>
@@ -28199,7 +28151,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K741">
         <v>5.343328707593614E-05</v>
@@ -28225,7 +28177,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K742">
         <v>5.343328707593614E-05</v>
@@ -28251,7 +28203,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K743">
         <v>5.343328707593614E-05</v>
@@ -28277,7 +28229,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K744">
         <v>5.343328707593614E-05</v>
@@ -28303,7 +28255,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K745">
         <v>5.343328707593614E-05</v>
@@ -28329,7 +28281,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K746">
         <v>5.343328707593614E-05</v>
@@ -28355,7 +28307,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K747">
         <v>5.343328707593614E-05</v>
@@ -28381,7 +28333,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K748">
         <v>5.343328707593614E-05</v>
@@ -28407,7 +28359,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K749">
         <v>5.343328707593614E-05</v>
@@ -28433,7 +28385,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K750">
         <v>5.343328707593614E-05</v>
@@ -28459,7 +28411,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K751">
         <v>5.343328707593614E-05</v>
@@ -28485,7 +28437,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K752">
         <v>4.852646630878946E-05</v>
@@ -28511,7 +28463,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K753">
         <v>2.51133784068555E-05</v>
@@ -28537,7 +28489,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K754">
         <v>1.775784016999144E-05</v>
@@ -28563,7 +28515,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K755">
         <v>1.775784016999144E-05</v>
@@ -28589,7 +28541,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K756">
         <v>1.775784016999144E-05</v>
@@ -28615,7 +28567,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K757">
         <v>1.775784016999144E-05</v>
@@ -28641,7 +28593,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K758">
         <v>1.775784016999144E-05</v>
@@ -28667,7 +28619,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K759">
         <v>1.775784016999144E-05</v>
@@ -28693,7 +28645,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K760">
         <v>1.775784016999144E-05</v>
@@ -28719,7 +28671,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K761">
         <v>1.775784016999144E-05</v>
@@ -28745,7 +28697,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K762">
         <v>1.775784016999144E-05</v>
@@ -28771,7 +28723,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K763">
         <v>1.775784016999144E-05</v>
@@ -28797,7 +28749,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K764">
         <v>1.775784016999144E-05</v>
@@ -28823,7 +28775,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K765">
         <v>1.255668920342762E-05</v>
@@ -28849,7 +28801,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K766">
         <v>0</v>
@@ -28875,7 +28827,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K767">
         <v>0</v>
@@ -28901,7 +28853,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K768">
         <v>0</v>
@@ -28927,7 +28879,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K769">
         <v>0</v>
@@ -28953,7 +28905,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K770">
         <v>0</v>
@@ -28979,7 +28931,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K771">
         <v>0</v>
@@ -29005,7 +28957,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K772">
         <v>0</v>
@@ -29031,7 +28983,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K773">
         <v>0</v>
@@ -29057,7 +29009,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K774">
         <v>0</v>
@@ -29083,7 +29035,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K775">
         <v>0</v>
@@ -29109,7 +29061,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K776">
         <v>0</v>
@@ -29135,7 +29087,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K777">
         <v>0</v>
@@ -29161,7 +29113,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K778">
         <v>0</v>
@@ -29187,7 +29139,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K779">
         <v>0</v>
@@ -29213,7 +29165,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K780">
         <v>0</v>
